--- a/va_facility_data_2025-02-20/Macon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Macon%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Macon VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Macon%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R578565c9cbcb4713995c1c4c67644ac6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R089f40ff5cf642d88ec941562700af9b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8178f5bb1f8c4632a5d1ac5dd1f4b1e9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf52d10d2f07c483a8aaca44183cb03d1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R05a378cc3c624c0dad24a90e878b6486"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R071bfbdaa79c4e4d8f7e4a1193d37238"/>
   </x:sheets>
 </x:workbook>
 </file>
